--- a/biology/Botanique/Exocarpos/Exocarpos.xlsx
+++ b/biology/Botanique/Exocarpos/Exocarpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exocarpos est un genre de la famille des Santalaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Exocarpos est un genre d'arbrisseau hémiparasite, nécessitant un arbre hôte, un trait qu'il partage avec de nombreux autres membres des Santalaceae.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Exocarpos se trouve partout en Asie du Sud-Est, en Australie et dans les îles du Pacifique.
 </t>
@@ -573,7 +589,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Exocarpos aphyllus  R.Br.
 Exocarpos cupressiformis  Labill. 
@@ -619,7 +637,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Exocarpos » (voir la liste des auteurs).</t>
         </is>
